--- a/data_tables/sodium_inhibition.xlsx
+++ b/data_tables/sodium_inhibition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/pauline_busch_uzh_ch/Documents/Documents/Pauline Busch/R/Flow cytometry graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{E2B5B4C8-A157-47BC-8F25-C7F3F97FA246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37F2CAF-5E1E-4695-B9AB-7F0D36B8DF34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31231C6B-D081-46E7-995C-50BB011051E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="38640" windowHeight="21240" xr2:uid="{1FF581B6-F454-423F-B222-88A4ADEEA6FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FF581B6-F454-423F-B222-88A4ADEEA6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,29 +45,29 @@
     <t>treatment</t>
   </si>
   <si>
+    <t>bumetanide</t>
+  </si>
+  <si>
+    <t>amiloride</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>0.75 mM CDNB</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
     <t>0 mM CDNB</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>bumetanide</t>
-  </si>
-  <si>
-    <t>amiloride</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>0.75 mM CDNB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,15 +421,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,92 +440,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>295.59333333333331</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>287.51</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>289.1466666666667</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>289.61333333333334</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>234.94000000000003</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>234.28</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>232.15666666666667</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
       </c>
       <c r="B9">
         <v>227.535</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
